--- a/auto_cdr/template/template.xlsx
+++ b/auto_cdr/template/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_work_space\Python_project\fet\auto cdr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e77c38457a178476/桌面/auto_cdr/source code/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DCE554-56E6-450E-8BFD-BAD22C193A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F9DCE554-56E6-450E-8BFD-BAD22C193A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD8AD5FD-5719-4149-9189-98457F754132}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LN000000" sheetId="2" r:id="rId1"/>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="C370" sqref="C370"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B100" sqref="B98:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2551,19 +2551,19 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
@@ -2615,19 +2615,19 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="16"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="16"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
@@ -2877,19 +2877,19 @@
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="16"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="16"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="13"/>
+      <c r="B76" s="16"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
@@ -3035,19 +3035,19 @@
       <c r="A98" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="16"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="B99" s="13"/>
+      <c r="B99" s="16"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B100" s="13"/>
+      <c r="B100" s="16"/>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
